--- a/Code/Results/Cases/Case_4_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9957262107463006</v>
+        <v>1.039071318908831</v>
       </c>
       <c r="D2">
-        <v>1.017257301689922</v>
+        <v>1.04398819050538</v>
       </c>
       <c r="E2">
-        <v>1.003930905567474</v>
+        <v>1.042724914362951</v>
       </c>
       <c r="F2">
-        <v>1.016936509277138</v>
+        <v>1.051837051097158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045274352509318</v>
+        <v>1.036623983560882</v>
       </c>
       <c r="J2">
-        <v>1.018035505881941</v>
+        <v>1.044165322405027</v>
       </c>
       <c r="K2">
-        <v>1.028481338356762</v>
+        <v>1.04676050673295</v>
       </c>
       <c r="L2">
-        <v>1.015335746943203</v>
+        <v>1.045500792026213</v>
       </c>
       <c r="M2">
-        <v>1.028164828354365</v>
+        <v>1.054587447587773</v>
       </c>
       <c r="N2">
-        <v>1.009036346819789</v>
+        <v>1.018504033385264</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0027828049304</v>
+        <v>1.040478437287656</v>
       </c>
       <c r="D3">
-        <v>1.022656189439116</v>
+        <v>1.045068637076232</v>
       </c>
       <c r="E3">
-        <v>1.010462710926089</v>
+        <v>1.044081514291748</v>
       </c>
       <c r="F3">
-        <v>1.023239098041775</v>
+        <v>1.053137988766934</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047519109769511</v>
+        <v>1.036957648091379</v>
       </c>
       <c r="J3">
-        <v>1.023197894283126</v>
+        <v>1.045215204850368</v>
       </c>
       <c r="K3">
-        <v>1.033007160159903</v>
+        <v>1.047651396760461</v>
       </c>
       <c r="L3">
-        <v>1.020963447102255</v>
+        <v>1.046666853563893</v>
       </c>
       <c r="M3">
-        <v>1.033583020250997</v>
+        <v>1.055699856956297</v>
       </c>
       <c r="N3">
-        <v>1.010845845974881</v>
+        <v>1.018863631691469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007216678674126</v>
+        <v>1.041387793640134</v>
       </c>
       <c r="D4">
-        <v>1.026050142917748</v>
+        <v>1.045766489548504</v>
       </c>
       <c r="E4">
-        <v>1.014572816374217</v>
+        <v>1.044958555415854</v>
       </c>
       <c r="F4">
-        <v>1.027205094329178</v>
+        <v>1.053978902121754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04891367064128</v>
+        <v>1.037171271190628</v>
       </c>
       <c r="J4">
-        <v>1.026437565396005</v>
+        <v>1.045892992380143</v>
       </c>
       <c r="K4">
-        <v>1.035844011999676</v>
+        <v>1.048226004133231</v>
       </c>
       <c r="L4">
-        <v>1.024498485278184</v>
+        <v>1.047420073971934</v>
       </c>
       <c r="M4">
-        <v>1.036985901556226</v>
+        <v>1.056418234422609</v>
       </c>
       <c r="N4">
-        <v>1.011980167152507</v>
+        <v>1.019095502202878</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009050724095986</v>
+        <v>1.041769819004053</v>
       </c>
       <c r="D5">
-        <v>1.027454319039977</v>
+        <v>1.046059566367688</v>
       </c>
       <c r="E5">
-        <v>1.016274301858132</v>
+        <v>1.045327083997819</v>
       </c>
       <c r="F5">
-        <v>1.028846917655114</v>
+        <v>1.054332215581724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049486635684414</v>
+        <v>1.037260533849039</v>
       </c>
       <c r="J5">
-        <v>1.027776607744457</v>
+        <v>1.046177565540044</v>
       </c>
       <c r="K5">
-        <v>1.037015726959942</v>
+        <v>1.048467127425152</v>
       </c>
       <c r="L5">
-        <v>1.025960421993547</v>
+        <v>1.04773642103023</v>
       </c>
       <c r="M5">
-        <v>1.038393024453131</v>
+        <v>1.056719902796133</v>
       </c>
       <c r="N5">
-        <v>1.0124486977791</v>
+        <v>1.019192787053096</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009356958641413</v>
+        <v>1.041833947189474</v>
       </c>
       <c r="D6">
-        <v>1.027688791140813</v>
+        <v>1.046108757739445</v>
       </c>
       <c r="E6">
-        <v>1.016558480962155</v>
+        <v>1.045388951180155</v>
       </c>
       <c r="F6">
-        <v>1.029121130878227</v>
+        <v>1.054391526478731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049582074207602</v>
+        <v>1.037275489552774</v>
       </c>
       <c r="J6">
-        <v>1.02800012826092</v>
+        <v>1.046225325118023</v>
       </c>
       <c r="K6">
-        <v>1.037211266486343</v>
+        <v>1.048507587280181</v>
       </c>
       <c r="L6">
-        <v>1.026204504608023</v>
+        <v>1.047789519226039</v>
       </c>
       <c r="M6">
-        <v>1.038627945314047</v>
+        <v>1.056770534562079</v>
       </c>
       <c r="N6">
-        <v>1.012526888543484</v>
+        <v>1.019209110296717</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007241300838084</v>
+        <v>1.041392899327965</v>
       </c>
       <c r="D7">
-        <v>1.026068993067762</v>
+        <v>1.045770406831365</v>
       </c>
       <c r="E7">
-        <v>1.01459565359856</v>
+        <v>1.044963480412237</v>
       </c>
       <c r="F7">
-        <v>1.02722713083303</v>
+        <v>1.053983623919728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048921378207185</v>
+        <v>1.037172466060434</v>
       </c>
       <c r="J7">
-        <v>1.026455546267904</v>
+        <v>1.04589679630458</v>
       </c>
       <c r="K7">
-        <v>1.035859749303376</v>
+        <v>1.04822922776593</v>
       </c>
       <c r="L7">
-        <v>1.024518113176222</v>
+        <v>1.04742430221705</v>
       </c>
       <c r="M7">
-        <v>1.037004794191707</v>
+        <v>1.056422266651665</v>
       </c>
       <c r="N7">
-        <v>1.011986459924326</v>
+        <v>1.019096802886605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9981394620982911</v>
+        <v>1.039547101307436</v>
       </c>
       <c r="D8">
-        <v>1.019103218532185</v>
+        <v>1.044353597213175</v>
       </c>
       <c r="E8">
-        <v>1.006163383362023</v>
+        <v>1.043183545920561</v>
       </c>
       <c r="F8">
-        <v>1.019090596159556</v>
+        <v>1.052276893903344</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046045331452482</v>
+        <v>1.03673722001114</v>
       </c>
       <c r="J8">
-        <v>1.019801772607004</v>
+        <v>1.044520459778857</v>
       </c>
       <c r="K8">
-        <v>1.030030495645837</v>
+        <v>1.047061973826546</v>
       </c>
       <c r="L8">
-        <v>1.017260509954405</v>
+        <v>1.045895139606577</v>
       </c>
       <c r="M8">
-        <v>1.030018036325824</v>
+        <v>1.054963689066912</v>
       </c>
       <c r="N8">
-        <v>1.009655700680601</v>
+        <v>1.018625730554753</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9810040230937488</v>
+        <v>1.036285558040849</v>
       </c>
       <c r="D9">
-        <v>1.006008506853996</v>
+        <v>1.041847128724461</v>
       </c>
       <c r="E9">
-        <v>0.9903404871732973</v>
+        <v>1.040040963950812</v>
       </c>
       <c r="F9">
-        <v>1.003825401747463</v>
+        <v>1.04926248473132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040505603855349</v>
+        <v>1.035952734789999</v>
       </c>
       <c r="J9">
-        <v>1.00724588408498</v>
+        <v>1.042083079760739</v>
       </c>
       <c r="K9">
-        <v>1.019004846651041</v>
+        <v>1.044990749656415</v>
       </c>
       <c r="L9">
-        <v>1.003592251787488</v>
+        <v>1.043190415689459</v>
       </c>
       <c r="M9">
-        <v>1.016856717880301</v>
+        <v>1.052382396999259</v>
       </c>
       <c r="N9">
-        <v>1.005248348670156</v>
+        <v>1.017789352020864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9687107970991056</v>
+        <v>1.034104778707959</v>
       </c>
       <c r="D10">
-        <v>0.996636373357229</v>
+        <v>1.0401692986945</v>
       </c>
       <c r="E10">
-        <v>0.9790300010581481</v>
+        <v>1.037941498619562</v>
       </c>
       <c r="F10">
-        <v>0.9929182226596156</v>
+        <v>1.047247947837481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036451509952724</v>
+        <v>1.035417871443892</v>
       </c>
       <c r="J10">
-        <v>0.9982232847676835</v>
+        <v>1.040449774479286</v>
       </c>
       <c r="K10">
-        <v>1.01106662586371</v>
+        <v>1.043600066696753</v>
       </c>
       <c r="L10">
-        <v>0.9937884864753941</v>
+        <v>1.041380174759858</v>
       </c>
       <c r="M10">
-        <v>1.007416528936272</v>
+        <v>1.050653834382177</v>
       </c>
       <c r="N10">
-        <v>1.00207638346977</v>
+        <v>1.017227456800998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9631469381156065</v>
+        <v>1.033158874696602</v>
       </c>
       <c r="D11">
-        <v>0.9924021738108598</v>
+        <v>1.039441105881977</v>
       </c>
       <c r="E11">
-        <v>0.9739221511954317</v>
+        <v>1.037031292688418</v>
       </c>
       <c r="F11">
-        <v>0.9879943248866252</v>
+        <v>1.046374400759257</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034599056989012</v>
+        <v>1.035183432996924</v>
       </c>
       <c r="J11">
-        <v>0.9941374852753568</v>
+        <v>1.039740489928289</v>
       </c>
       <c r="K11">
-        <v>1.007468810631588</v>
+        <v>1.042995499387483</v>
       </c>
       <c r="L11">
-        <v>0.9893532036405588</v>
+        <v>1.040594577275859</v>
       </c>
       <c r="M11">
-        <v>1.003146258650951</v>
+        <v>1.04990346600963</v>
       </c>
       <c r="N11">
-        <v>1.000639165990036</v>
+        <v>1.016983109427904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9610407014935315</v>
+        <v>1.032807274603482</v>
       </c>
       <c r="D12">
-        <v>0.9908006494801892</v>
+        <v>1.03917036572456</v>
       </c>
       <c r="E12">
-        <v>0.9719903672846854</v>
+        <v>1.036693026911777</v>
       </c>
       <c r="F12">
-        <v>0.9861324532727277</v>
+        <v>1.046049734942047</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033895285517338</v>
+        <v>1.035095923723696</v>
       </c>
       <c r="J12">
-        <v>0.9925905712644769</v>
+        <v>1.039476716727471</v>
       </c>
       <c r="K12">
-        <v>1.006106242546697</v>
+        <v>1.042770572674673</v>
       </c>
       <c r="L12">
-        <v>0.9876746079186663</v>
+        <v>1.040302502929215</v>
       </c>
       <c r="M12">
-        <v>1.001530245038295</v>
+        <v>1.049624457085146</v>
       </c>
       <c r="N12">
-        <v>1.000094931986555</v>
+        <v>1.016892189604813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9614943463802428</v>
+        <v>1.03288270540821</v>
       </c>
       <c r="D13">
-        <v>0.9911455233580871</v>
+        <v>1.039228452103531</v>
       </c>
       <c r="E13">
-        <v>0.9724063533476364</v>
+        <v>1.036765594073875</v>
       </c>
       <c r="F13">
-        <v>0.9865333679630202</v>
+        <v>1.046119385615705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034046976223597</v>
+        <v>1.03511471417565</v>
       </c>
       <c r="J13">
-        <v>0.9929237554579545</v>
+        <v>1.039533311233674</v>
       </c>
       <c r="K13">
-        <v>1.006399738688544</v>
+        <v>1.042818836732661</v>
       </c>
       <c r="L13">
-        <v>0.9880361259650211</v>
+        <v>1.040365166103047</v>
       </c>
       <c r="M13">
-        <v>1.001878278031921</v>
+        <v>1.049684318589123</v>
       </c>
       <c r="N13">
-        <v>1.000212156240431</v>
+        <v>1.01691169940645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9629736643695094</v>
+        <v>1.033129816448135</v>
       </c>
       <c r="D14">
-        <v>0.9922703922824497</v>
+        <v>1.039418731682417</v>
       </c>
       <c r="E14">
-        <v>0.973763191230509</v>
+        <v>1.037003335133623</v>
       </c>
       <c r="F14">
-        <v>0.987841110412701</v>
+        <v>1.046347567719908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034541209990234</v>
+        <v>1.035176208203039</v>
       </c>
       <c r="J14">
-        <v>0.9940102287418486</v>
+        <v>1.039718692774044</v>
       </c>
       <c r="K14">
-        <v>1.007356727240616</v>
+        <v>1.042976914314068</v>
       </c>
       <c r="L14">
-        <v>0.9892151014873947</v>
+        <v>1.040570439826963</v>
       </c>
       <c r="M14">
-        <v>1.003013302313335</v>
+        <v>1.04988040896248</v>
       </c>
       <c r="N14">
-        <v>1.000594396397784</v>
+        <v>1.016975597206275</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9638797684647072</v>
+        <v>1.033282036479815</v>
       </c>
       <c r="D15">
-        <v>0.9929595769068599</v>
+        <v>1.039535935036112</v>
       </c>
       <c r="E15">
-        <v>0.9745945191023403</v>
+        <v>1.037149791909621</v>
       </c>
       <c r="F15">
-        <v>0.9886424048738606</v>
+        <v>1.046488132704038</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034843609220183</v>
+        <v>1.035214039880477</v>
       </c>
       <c r="J15">
-        <v>0.9946756864196156</v>
+        <v>1.039832870790126</v>
       </c>
       <c r="K15">
-        <v>1.007942824310572</v>
+        <v>1.043074262840326</v>
       </c>
       <c r="L15">
-        <v>0.9899372995323462</v>
+        <v>1.040696880008198</v>
       </c>
       <c r="M15">
-        <v>1.003708596217035</v>
+        <v>1.050001188311986</v>
       </c>
       <c r="N15">
-        <v>1.000828504716353</v>
+        <v>1.017014945720671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9690746986467217</v>
+        <v>1.03416752067756</v>
       </c>
       <c r="D16">
-        <v>0.9969134841671917</v>
+        <v>1.040217590661322</v>
       </c>
       <c r="E16">
-        <v>0.9793643213111828</v>
+        <v>1.038001881809041</v>
       </c>
       <c r="F16">
-        <v>0.9932405460787825</v>
+        <v>1.047305895713981</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036572315395668</v>
+        <v>1.035433370377313</v>
       </c>
       <c r="J16">
-        <v>0.9984904789977974</v>
+        <v>1.040496803690847</v>
       </c>
       <c r="K16">
-        <v>1.011301848783572</v>
+        <v>1.043640139086616</v>
       </c>
       <c r="L16">
-        <v>0.9940786232031826</v>
+        <v>1.041432274924703</v>
       </c>
       <c r="M16">
-        <v>1.007695886394788</v>
+        <v>1.05070359364048</v>
       </c>
       <c r="N16">
-        <v>1.002170357000154</v>
+        <v>1.017243651217445</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9722666061407256</v>
+        <v>1.034722524958093</v>
       </c>
       <c r="D17">
-        <v>0.9993449998851406</v>
+        <v>1.040644722044272</v>
       </c>
       <c r="E17">
-        <v>0.9822980427910804</v>
+        <v>1.038536070279751</v>
       </c>
       <c r="F17">
-        <v>0.9960692058993608</v>
+        <v>1.047818521285791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037629971971725</v>
+        <v>1.03557018919523</v>
       </c>
       <c r="J17">
-        <v>1.000833897011435</v>
+        <v>1.040912718232956</v>
       </c>
       <c r="K17">
-        <v>1.013364523380999</v>
+        <v>1.043994454931494</v>
       </c>
       <c r="L17">
-        <v>0.9966237376146697</v>
+        <v>1.04189309610347</v>
       </c>
       <c r="M17">
-        <v>1.01014650899798</v>
+        <v>1.051143684702458</v>
       </c>
       <c r="N17">
-        <v>1.002994459345831</v>
+        <v>1.017386831739694</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9741054077855287</v>
+        <v>1.035046094491236</v>
       </c>
       <c r="D18">
-        <v>1.000746450479701</v>
+        <v>1.040893698623604</v>
       </c>
       <c r="E18">
-        <v>0.9839891527462516</v>
+        <v>1.0388475453727</v>
       </c>
       <c r="F18">
-        <v>0.997699920400434</v>
+        <v>1.048117407897721</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038237607898877</v>
+        <v>1.035649719492853</v>
       </c>
       <c r="J18">
-        <v>1.002183682278433</v>
+        <v>1.041155116441611</v>
       </c>
       <c r="K18">
-        <v>1.014552311643673</v>
+        <v>1.044200890813384</v>
       </c>
       <c r="L18">
-        <v>0.9980900984347513</v>
+        <v>1.042161716698708</v>
       </c>
       <c r="M18">
-        <v>1.01155847467644</v>
+        <v>1.051400200408329</v>
       </c>
       <c r="N18">
-        <v>1.003469054637893</v>
+        <v>1.017470245988865</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9747285892667434</v>
+        <v>1.035156397248264</v>
       </c>
       <c r="D19">
-        <v>1.001221523047183</v>
+        <v>1.040978565866719</v>
       </c>
       <c r="E19">
-        <v>0.9845624538849622</v>
+        <v>1.038953732190057</v>
       </c>
       <c r="F19">
-        <v>0.9982527732188101</v>
+        <v>1.048219300448868</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038443254099392</v>
+        <v>1.03567679088279</v>
       </c>
       <c r="J19">
-        <v>1.002641092800862</v>
+        <v>1.041237734581243</v>
       </c>
       <c r="K19">
-        <v>1.014954774257691</v>
+        <v>1.04427124113012</v>
       </c>
       <c r="L19">
-        <v>0.9985870817432223</v>
+        <v>1.042253280943374</v>
       </c>
       <c r="M19">
-        <v>1.012037028605968</v>
+        <v>1.051487634916358</v>
       </c>
       <c r="N19">
-        <v>1.003629869497084</v>
+        <v>1.017498671089929</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9719265451609692</v>
+        <v>1.034662994342241</v>
       </c>
       <c r="D20">
-        <v>0.9990858759387143</v>
+        <v>1.040598911669794</v>
       </c>
       <c r="E20">
-        <v>0.9819853790339098</v>
+        <v>1.038478768127036</v>
       </c>
       <c r="F20">
-        <v>0.9957677214506234</v>
+        <v>1.047763533782792</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037517462636307</v>
+        <v>1.03555553816523</v>
       </c>
       <c r="J20">
-        <v>1.00058425447509</v>
+        <v>1.040868115024555</v>
       </c>
       <c r="K20">
-        <v>1.01314481818325</v>
+        <v>1.043956464071548</v>
       </c>
       <c r="L20">
-        <v>0.9963525669268997</v>
+        <v>1.041843671830385</v>
       </c>
       <c r="M20">
-        <v>1.009885400862082</v>
+        <v>1.051096485953182</v>
       </c>
       <c r="N20">
-        <v>1.002906676392417</v>
+        <v>1.017371480234501</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9625391639118005</v>
+        <v>1.033057055342432</v>
       </c>
       <c r="D21">
-        <v>0.991939960191988</v>
+        <v>1.03936270621629</v>
       </c>
       <c r="E21">
-        <v>0.9733646138340253</v>
+        <v>1.036933331189575</v>
       </c>
       <c r="F21">
-        <v>0.9874569450475832</v>
+        <v>1.046280379108027</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034396113179221</v>
+        <v>1.035158111585479</v>
       </c>
       <c r="J21">
-        <v>0.9936911179617429</v>
+        <v>1.039664111220593</v>
       </c>
       <c r="K21">
-        <v>1.007075658523903</v>
+        <v>1.042930374473391</v>
       </c>
       <c r="L21">
-        <v>0.9888688042336748</v>
+        <v>1.04050999928572</v>
       </c>
       <c r="M21">
-        <v>1.002679910706859</v>
+        <v>1.049822673243626</v>
       </c>
       <c r="N21">
-        <v>1.00048212997729</v>
+        <v>1.016956785280608</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9564059788831207</v>
+        <v>1.032045892293222</v>
       </c>
       <c r="D22">
-        <v>0.9872793105791531</v>
+        <v>1.038583966131027</v>
       </c>
       <c r="E22">
-        <v>0.9677430655188977</v>
+        <v>1.035960639517499</v>
       </c>
       <c r="F22">
-        <v>0.9820395772181888</v>
+        <v>1.045346750041482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032342172401794</v>
+        <v>1.034905754223111</v>
       </c>
       <c r="J22">
-        <v>0.9891863941805966</v>
+        <v>1.038905290882943</v>
       </c>
       <c r="K22">
-        <v>1.003107050103204</v>
+        <v>1.042283126105237</v>
       </c>
       <c r="L22">
-        <v>0.9839818156280871</v>
+        <v>1.039669910498166</v>
       </c>
       <c r="M22">
-        <v>0.9979754321829678</v>
+        <v>1.049020103872811</v>
       </c>
       <c r="N22">
-        <v>0.9988971423577054</v>
+        <v>1.016695133246419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.959680441163293</v>
+        <v>1.032582068324697</v>
       </c>
       <c r="D23">
-        <v>0.9897667582930985</v>
+        <v>1.038996933543627</v>
       </c>
       <c r="E23">
-        <v>0.9707433070551336</v>
+        <v>1.036476379905222</v>
       </c>
       <c r="F23">
-        <v>0.9849306304657069</v>
+        <v>1.045841791565683</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033440081238416</v>
+        <v>1.035039769287323</v>
       </c>
       <c r="J23">
-        <v>0.9915914940622534</v>
+        <v>1.039307729641427</v>
       </c>
       <c r="K23">
-        <v>1.005226117280873</v>
+        <v>1.042626445616856</v>
       </c>
       <c r="L23">
-        <v>0.9865906623380331</v>
+        <v>1.040115406743074</v>
       </c>
       <c r="M23">
-        <v>1.000486755356642</v>
+        <v>1.049445721267658</v>
       </c>
       <c r="N23">
-        <v>0.9997434153846696</v>
+        <v>1.016833927393308</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9720802748560424</v>
+        <v>1.034689894144571</v>
       </c>
       <c r="D24">
-        <v>0.9992030146773673</v>
+        <v>1.040619611906836</v>
       </c>
       <c r="E24">
-        <v>0.9821267201662481</v>
+        <v>1.03850466083739</v>
       </c>
       <c r="F24">
-        <v>0.9959040084127475</v>
+        <v>1.047788380637221</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037568329348915</v>
+        <v>1.035562159181229</v>
       </c>
       <c r="J24">
-        <v>1.000697109830926</v>
+        <v>1.040888269905704</v>
       </c>
       <c r="K24">
-        <v>1.013244140741638</v>
+        <v>1.043973631218547</v>
       </c>
       <c r="L24">
-        <v>0.9964751532226737</v>
+        <v>1.041866005053236</v>
       </c>
       <c r="M24">
-        <v>1.010003438108901</v>
+        <v>1.051117813598925</v>
       </c>
       <c r="N24">
-        <v>1.002946360489248</v>
+        <v>1.017378417229641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9855766349597734</v>
+        <v>1.037129849802828</v>
       </c>
       <c r="D25">
-        <v>1.009499755146392</v>
+        <v>1.042496302516233</v>
       </c>
       <c r="E25">
-        <v>0.9945562860881987</v>
+        <v>1.040854151811659</v>
       </c>
       <c r="F25">
-        <v>1.00789202741811</v>
+        <v>1.050042630952069</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04199787748626</v>
+        <v>1.036157629118677</v>
       </c>
       <c r="J25">
-        <v>1.010599347227114</v>
+        <v>1.042714660405025</v>
       </c>
       <c r="K25">
-        <v>1.021952368092096</v>
+        <v>1.045527934869275</v>
       </c>
       <c r="L25">
-        <v>1.007239700621648</v>
+        <v>1.043890881589773</v>
       </c>
       <c r="M25">
-        <v>1.020369052832753</v>
+        <v>1.05305106228863</v>
       </c>
       <c r="N25">
-        <v>1.006426405099472</v>
+        <v>1.018006329511577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_207/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_207/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039071318908831</v>
+        <v>0.9957262107463007</v>
       </c>
       <c r="D2">
-        <v>1.04398819050538</v>
+        <v>1.017257301689923</v>
       </c>
       <c r="E2">
-        <v>1.042724914362951</v>
+        <v>1.003930905567474</v>
       </c>
       <c r="F2">
-        <v>1.051837051097158</v>
+        <v>1.016936509277139</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036623983560882</v>
+        <v>1.045274352509318</v>
       </c>
       <c r="J2">
-        <v>1.044165322405027</v>
+        <v>1.018035505881941</v>
       </c>
       <c r="K2">
-        <v>1.04676050673295</v>
+        <v>1.028481338356762</v>
       </c>
       <c r="L2">
-        <v>1.045500792026213</v>
+        <v>1.015335746943203</v>
       </c>
       <c r="M2">
-        <v>1.054587447587773</v>
+        <v>1.028164828354365</v>
       </c>
       <c r="N2">
-        <v>1.018504033385264</v>
+        <v>1.009036346819789</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040478437287656</v>
+        <v>1.0027828049304</v>
       </c>
       <c r="D3">
-        <v>1.045068637076232</v>
+        <v>1.022656189439116</v>
       </c>
       <c r="E3">
-        <v>1.044081514291748</v>
+        <v>1.010462710926089</v>
       </c>
       <c r="F3">
-        <v>1.053137988766934</v>
+        <v>1.023239098041775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036957648091379</v>
+        <v>1.04751910976951</v>
       </c>
       <c r="J3">
-        <v>1.045215204850368</v>
+        <v>1.023197894283126</v>
       </c>
       <c r="K3">
-        <v>1.047651396760461</v>
+        <v>1.033007160159903</v>
       </c>
       <c r="L3">
-        <v>1.046666853563893</v>
+        <v>1.020963447102255</v>
       </c>
       <c r="M3">
-        <v>1.055699856956297</v>
+        <v>1.033583020250997</v>
       </c>
       <c r="N3">
-        <v>1.018863631691469</v>
+        <v>1.010845845974881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041387793640134</v>
+        <v>1.007216678674127</v>
       </c>
       <c r="D4">
-        <v>1.045766489548504</v>
+        <v>1.026050142917749</v>
       </c>
       <c r="E4">
-        <v>1.044958555415854</v>
+        <v>1.014572816374218</v>
       </c>
       <c r="F4">
-        <v>1.053978902121754</v>
+        <v>1.027205094329178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037171271190628</v>
+        <v>1.04891367064128</v>
       </c>
       <c r="J4">
-        <v>1.045892992380143</v>
+        <v>1.026437565396006</v>
       </c>
       <c r="K4">
-        <v>1.048226004133231</v>
+        <v>1.035844011999676</v>
       </c>
       <c r="L4">
-        <v>1.047420073971934</v>
+        <v>1.024498485278186</v>
       </c>
       <c r="M4">
-        <v>1.056418234422609</v>
+        <v>1.036985901556226</v>
       </c>
       <c r="N4">
-        <v>1.019095502202878</v>
+        <v>1.011980167152507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041769819004053</v>
+        <v>1.009050724095984</v>
       </c>
       <c r="D5">
-        <v>1.046059566367688</v>
+        <v>1.027454319039975</v>
       </c>
       <c r="E5">
-        <v>1.045327083997819</v>
+        <v>1.01627430185813</v>
       </c>
       <c r="F5">
-        <v>1.054332215581724</v>
+        <v>1.028846917655112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037260533849039</v>
+        <v>1.049486635684413</v>
       </c>
       <c r="J5">
-        <v>1.046177565540044</v>
+        <v>1.027776607744455</v>
       </c>
       <c r="K5">
-        <v>1.048467127425152</v>
+        <v>1.03701572695994</v>
       </c>
       <c r="L5">
-        <v>1.04773642103023</v>
+        <v>1.025960421993545</v>
       </c>
       <c r="M5">
-        <v>1.056719902796133</v>
+        <v>1.038393024453129</v>
       </c>
       <c r="N5">
-        <v>1.019192787053096</v>
+        <v>1.0124486977791</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041833947189474</v>
+        <v>1.009356958641413</v>
       </c>
       <c r="D6">
-        <v>1.046108757739445</v>
+        <v>1.027688791140814</v>
       </c>
       <c r="E6">
-        <v>1.045388951180155</v>
+        <v>1.016558480962155</v>
       </c>
       <c r="F6">
-        <v>1.054391526478731</v>
+        <v>1.029121130878227</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037275489552774</v>
+        <v>1.049582074207602</v>
       </c>
       <c r="J6">
-        <v>1.046225325118023</v>
+        <v>1.02800012826092</v>
       </c>
       <c r="K6">
-        <v>1.048507587280181</v>
+        <v>1.037211266486343</v>
       </c>
       <c r="L6">
-        <v>1.047789519226039</v>
+        <v>1.026204504608023</v>
       </c>
       <c r="M6">
-        <v>1.056770534562079</v>
+        <v>1.038627945314047</v>
       </c>
       <c r="N6">
-        <v>1.019209110296717</v>
+        <v>1.012526888543484</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041392899327965</v>
+        <v>1.007241300838084</v>
       </c>
       <c r="D7">
-        <v>1.045770406831365</v>
+        <v>1.026068993067762</v>
       </c>
       <c r="E7">
-        <v>1.044963480412237</v>
+        <v>1.014595653598559</v>
       </c>
       <c r="F7">
-        <v>1.053983623919728</v>
+        <v>1.02722713083303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037172466060434</v>
+        <v>1.048921378207185</v>
       </c>
       <c r="J7">
-        <v>1.04589679630458</v>
+        <v>1.026455546267903</v>
       </c>
       <c r="K7">
-        <v>1.04822922776593</v>
+        <v>1.035859749303376</v>
       </c>
       <c r="L7">
-        <v>1.04742430221705</v>
+        <v>1.024518113176221</v>
       </c>
       <c r="M7">
-        <v>1.056422266651665</v>
+        <v>1.037004794191706</v>
       </c>
       <c r="N7">
-        <v>1.019096802886605</v>
+        <v>1.011986459924326</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039547101307436</v>
+        <v>0.9981394620982907</v>
       </c>
       <c r="D8">
-        <v>1.044353597213175</v>
+        <v>1.019103218532184</v>
       </c>
       <c r="E8">
-        <v>1.043183545920561</v>
+        <v>1.006163383362023</v>
       </c>
       <c r="F8">
-        <v>1.052276893903344</v>
+        <v>1.019090596159555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03673722001114</v>
+        <v>1.046045331452482</v>
       </c>
       <c r="J8">
-        <v>1.044520459778857</v>
+        <v>1.019801772607004</v>
       </c>
       <c r="K8">
-        <v>1.047061973826546</v>
+        <v>1.030030495645837</v>
       </c>
       <c r="L8">
-        <v>1.045895139606577</v>
+        <v>1.017260509954404</v>
       </c>
       <c r="M8">
-        <v>1.054963689066912</v>
+        <v>1.030018036325824</v>
       </c>
       <c r="N8">
-        <v>1.018625730554753</v>
+        <v>1.009655700680601</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036285558040849</v>
+        <v>0.9810040230937486</v>
       </c>
       <c r="D9">
-        <v>1.041847128724461</v>
+        <v>1.006008506853996</v>
       </c>
       <c r="E9">
-        <v>1.040040963950812</v>
+        <v>0.9903404871732969</v>
       </c>
       <c r="F9">
-        <v>1.04926248473132</v>
+        <v>1.003825401747464</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035952734789999</v>
+        <v>1.04050560385535</v>
       </c>
       <c r="J9">
-        <v>1.042083079760739</v>
+        <v>1.00724588408498</v>
       </c>
       <c r="K9">
-        <v>1.044990749656415</v>
+        <v>1.019004846651041</v>
       </c>
       <c r="L9">
-        <v>1.043190415689459</v>
+        <v>1.003592251787487</v>
       </c>
       <c r="M9">
-        <v>1.052382396999259</v>
+        <v>1.016856717880301</v>
       </c>
       <c r="N9">
-        <v>1.017789352020864</v>
+        <v>1.005248348670156</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034104778707959</v>
+        <v>0.9687107970991078</v>
       </c>
       <c r="D10">
-        <v>1.0401692986945</v>
+        <v>0.9966363733572309</v>
       </c>
       <c r="E10">
-        <v>1.037941498619562</v>
+        <v>0.9790300010581501</v>
       </c>
       <c r="F10">
-        <v>1.047247947837481</v>
+        <v>0.9929182226596177</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035417871443892</v>
+        <v>1.036451509952725</v>
       </c>
       <c r="J10">
-        <v>1.040449774479286</v>
+        <v>0.9982232847676854</v>
       </c>
       <c r="K10">
-        <v>1.043600066696753</v>
+        <v>1.011066625863712</v>
       </c>
       <c r="L10">
-        <v>1.041380174759858</v>
+        <v>0.9937884864753963</v>
       </c>
       <c r="M10">
-        <v>1.050653834382177</v>
+        <v>1.007416528936274</v>
       </c>
       <c r="N10">
-        <v>1.017227456800998</v>
+        <v>1.002076383469771</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033158874696602</v>
+        <v>0.9631469381156051</v>
       </c>
       <c r="D11">
-        <v>1.039441105881977</v>
+        <v>0.9924021738108583</v>
       </c>
       <c r="E11">
-        <v>1.037031292688418</v>
+        <v>0.9739221511954309</v>
       </c>
       <c r="F11">
-        <v>1.046374400759257</v>
+        <v>0.9879943248866239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035183432996924</v>
+        <v>1.034599056989011</v>
       </c>
       <c r="J11">
-        <v>1.039740489928289</v>
+        <v>0.9941374852753555</v>
       </c>
       <c r="K11">
-        <v>1.042995499387483</v>
+        <v>1.007468810631587</v>
       </c>
       <c r="L11">
-        <v>1.040594577275859</v>
+        <v>0.9893532036405577</v>
       </c>
       <c r="M11">
-        <v>1.04990346600963</v>
+        <v>1.003146258650949</v>
       </c>
       <c r="N11">
-        <v>1.016983109427904</v>
+        <v>1.000639165990036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.032807274603482</v>
+        <v>0.9610407014935299</v>
       </c>
       <c r="D12">
-        <v>1.03917036572456</v>
+        <v>0.990800649480188</v>
       </c>
       <c r="E12">
-        <v>1.036693026911777</v>
+        <v>0.9719903672846836</v>
       </c>
       <c r="F12">
-        <v>1.046049734942047</v>
+        <v>0.9861324532727264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035095923723696</v>
+        <v>1.033895285517338</v>
       </c>
       <c r="J12">
-        <v>1.039476716727471</v>
+        <v>0.9925905712644755</v>
       </c>
       <c r="K12">
-        <v>1.042770572674673</v>
+        <v>1.006106242546696</v>
       </c>
       <c r="L12">
-        <v>1.040302502929215</v>
+        <v>0.9876746079186647</v>
       </c>
       <c r="M12">
-        <v>1.049624457085146</v>
+        <v>1.001530245038293</v>
       </c>
       <c r="N12">
-        <v>1.016892189604813</v>
+        <v>1.000094931986554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03288270540821</v>
+        <v>0.9614943463802438</v>
       </c>
       <c r="D13">
-        <v>1.039228452103531</v>
+        <v>0.9911455233580888</v>
       </c>
       <c r="E13">
-        <v>1.036765594073875</v>
+        <v>0.9724063533476377</v>
       </c>
       <c r="F13">
-        <v>1.046119385615705</v>
+        <v>0.9865333679630217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03511471417565</v>
+        <v>1.034046976223598</v>
       </c>
       <c r="J13">
-        <v>1.039533311233674</v>
+        <v>0.9929237554579559</v>
       </c>
       <c r="K13">
-        <v>1.042818836732661</v>
+        <v>1.006399738688546</v>
       </c>
       <c r="L13">
-        <v>1.040365166103047</v>
+        <v>0.9880361259650224</v>
       </c>
       <c r="M13">
-        <v>1.049684318589123</v>
+        <v>1.001878278031923</v>
       </c>
       <c r="N13">
-        <v>1.01691169940645</v>
+        <v>1.000212156240431</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033129816448135</v>
+        <v>0.9629736643695122</v>
       </c>
       <c r="D14">
-        <v>1.039418731682417</v>
+        <v>0.9922703922824517</v>
       </c>
       <c r="E14">
-        <v>1.037003335133623</v>
+        <v>0.973763191230512</v>
       </c>
       <c r="F14">
-        <v>1.046347567719908</v>
+        <v>0.9878411104127036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035176208203039</v>
+        <v>1.034541209990234</v>
       </c>
       <c r="J14">
-        <v>1.039718692774044</v>
+        <v>0.9940102287418512</v>
       </c>
       <c r="K14">
-        <v>1.042976914314068</v>
+        <v>1.007356727240618</v>
       </c>
       <c r="L14">
-        <v>1.040570439826963</v>
+        <v>0.9892151014873976</v>
       </c>
       <c r="M14">
-        <v>1.04988040896248</v>
+        <v>1.003013302313337</v>
       </c>
       <c r="N14">
-        <v>1.016975597206275</v>
+        <v>1.000594396397785</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033282036479815</v>
+        <v>0.9638797684647061</v>
       </c>
       <c r="D15">
-        <v>1.039535935036112</v>
+        <v>0.9929595769068595</v>
       </c>
       <c r="E15">
-        <v>1.037149791909621</v>
+        <v>0.9745945191023394</v>
       </c>
       <c r="F15">
-        <v>1.046488132704038</v>
+        <v>0.98864240487386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035214039880477</v>
+        <v>1.034843609220182</v>
       </c>
       <c r="J15">
-        <v>1.039832870790126</v>
+        <v>0.9946756864196149</v>
       </c>
       <c r="K15">
-        <v>1.043074262840326</v>
+        <v>1.007942824310571</v>
       </c>
       <c r="L15">
-        <v>1.040696880008198</v>
+        <v>0.9899372995323451</v>
       </c>
       <c r="M15">
-        <v>1.050001188311986</v>
+        <v>1.003708596217034</v>
       </c>
       <c r="N15">
-        <v>1.017014945720671</v>
+        <v>1.000828504716353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03416752067756</v>
+        <v>0.9690746986467212</v>
       </c>
       <c r="D16">
-        <v>1.040217590661322</v>
+        <v>0.9969134841671916</v>
       </c>
       <c r="E16">
-        <v>1.038001881809041</v>
+        <v>0.979364321311182</v>
       </c>
       <c r="F16">
-        <v>1.047305895713981</v>
+        <v>0.9932405460787822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035433370377313</v>
+        <v>1.036572315395668</v>
       </c>
       <c r="J16">
-        <v>1.040496803690847</v>
+        <v>0.998490478997797</v>
       </c>
       <c r="K16">
-        <v>1.043640139086616</v>
+        <v>1.011301848783572</v>
       </c>
       <c r="L16">
-        <v>1.041432274924703</v>
+        <v>0.9940786232031817</v>
       </c>
       <c r="M16">
-        <v>1.05070359364048</v>
+        <v>1.007695886394788</v>
       </c>
       <c r="N16">
-        <v>1.017243651217445</v>
+        <v>1.002170357000154</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034722524958093</v>
+        <v>0.9722666061407247</v>
       </c>
       <c r="D17">
-        <v>1.040644722044272</v>
+        <v>0.99934499988514</v>
       </c>
       <c r="E17">
-        <v>1.038536070279751</v>
+        <v>0.9822980427910796</v>
       </c>
       <c r="F17">
-        <v>1.047818521285791</v>
+        <v>0.99606920589936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03557018919523</v>
+        <v>1.037629971971725</v>
       </c>
       <c r="J17">
-        <v>1.040912718232956</v>
+        <v>1.000833897011434</v>
       </c>
       <c r="K17">
-        <v>1.043994454931494</v>
+        <v>1.013364523380998</v>
       </c>
       <c r="L17">
-        <v>1.04189309610347</v>
+        <v>0.9966237376146688</v>
       </c>
       <c r="M17">
-        <v>1.051143684702458</v>
+        <v>1.010146508997979</v>
       </c>
       <c r="N17">
-        <v>1.017386831739694</v>
+        <v>1.002994459345831</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035046094491236</v>
+        <v>0.9741054077855277</v>
       </c>
       <c r="D18">
-        <v>1.040893698623604</v>
+        <v>1.000746450479701</v>
       </c>
       <c r="E18">
-        <v>1.0388475453727</v>
+        <v>0.9839891527462507</v>
       </c>
       <c r="F18">
-        <v>1.048117407897721</v>
+        <v>0.9976999204004334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035649719492853</v>
+        <v>1.038237607898877</v>
       </c>
       <c r="J18">
-        <v>1.041155116441611</v>
+        <v>1.002183682278433</v>
       </c>
       <c r="K18">
-        <v>1.044200890813384</v>
+        <v>1.014552311643672</v>
       </c>
       <c r="L18">
-        <v>1.042161716698708</v>
+        <v>0.9980900984347505</v>
       </c>
       <c r="M18">
-        <v>1.051400200408329</v>
+        <v>1.01155847467644</v>
       </c>
       <c r="N18">
-        <v>1.017470245988865</v>
+        <v>1.003469054637892</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035156397248264</v>
+        <v>0.9747285892667445</v>
       </c>
       <c r="D19">
-        <v>1.040978565866719</v>
+        <v>1.001221523047184</v>
       </c>
       <c r="E19">
-        <v>1.038953732190057</v>
+        <v>0.9845624538849636</v>
       </c>
       <c r="F19">
-        <v>1.048219300448868</v>
+        <v>0.9982527732188111</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03567679088279</v>
+        <v>1.038443254099392</v>
       </c>
       <c r="J19">
-        <v>1.041237734581243</v>
+        <v>1.002641092800863</v>
       </c>
       <c r="K19">
-        <v>1.04427124113012</v>
+        <v>1.014954774257692</v>
       </c>
       <c r="L19">
-        <v>1.042253280943374</v>
+        <v>0.9985870817432236</v>
       </c>
       <c r="M19">
-        <v>1.051487634916358</v>
+        <v>1.012037028605969</v>
       </c>
       <c r="N19">
-        <v>1.017498671089929</v>
+        <v>1.003629869497084</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034662994342241</v>
+        <v>0.9719265451609689</v>
       </c>
       <c r="D20">
-        <v>1.040598911669794</v>
+        <v>0.9990858759387139</v>
       </c>
       <c r="E20">
-        <v>1.038478768127036</v>
+        <v>0.9819853790339095</v>
       </c>
       <c r="F20">
-        <v>1.047763533782792</v>
+        <v>0.9957677214506232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03555553816523</v>
+        <v>1.037517462636307</v>
       </c>
       <c r="J20">
-        <v>1.040868115024555</v>
+        <v>1.000584254475089</v>
       </c>
       <c r="K20">
-        <v>1.043956464071548</v>
+        <v>1.01314481818325</v>
       </c>
       <c r="L20">
-        <v>1.041843671830385</v>
+        <v>0.9963525669268996</v>
       </c>
       <c r="M20">
-        <v>1.051096485953182</v>
+        <v>1.009885400862082</v>
       </c>
       <c r="N20">
-        <v>1.017371480234501</v>
+        <v>1.002906676392416</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033057055342432</v>
+        <v>0.9625391639117993</v>
       </c>
       <c r="D21">
-        <v>1.03936270621629</v>
+        <v>0.9919399601919865</v>
       </c>
       <c r="E21">
-        <v>1.036933331189575</v>
+        <v>0.9733646138340241</v>
       </c>
       <c r="F21">
-        <v>1.046280379108027</v>
+        <v>0.9874569450475816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035158111585479</v>
+        <v>1.03439611317922</v>
       </c>
       <c r="J21">
-        <v>1.039664111220593</v>
+        <v>0.9936911179617417</v>
       </c>
       <c r="K21">
-        <v>1.042930374473391</v>
+        <v>1.007075658523901</v>
       </c>
       <c r="L21">
-        <v>1.04050999928572</v>
+        <v>0.9888688042336737</v>
       </c>
       <c r="M21">
-        <v>1.049822673243626</v>
+        <v>1.002679910706858</v>
       </c>
       <c r="N21">
-        <v>1.016956785280608</v>
+        <v>1.000482129977289</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032045892293222</v>
+        <v>0.9564059788831213</v>
       </c>
       <c r="D22">
-        <v>1.038583966131027</v>
+        <v>0.9872793105791534</v>
       </c>
       <c r="E22">
-        <v>1.035960639517499</v>
+        <v>0.9677430655188979</v>
       </c>
       <c r="F22">
-        <v>1.045346750041482</v>
+        <v>0.9820395772181896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034905754223111</v>
+        <v>1.032342172401794</v>
       </c>
       <c r="J22">
-        <v>1.038905290882943</v>
+        <v>0.9891863941805971</v>
       </c>
       <c r="K22">
-        <v>1.042283126105237</v>
+        <v>1.003107050103205</v>
       </c>
       <c r="L22">
-        <v>1.039669910498166</v>
+        <v>0.9839818156280873</v>
       </c>
       <c r="M22">
-        <v>1.049020103872811</v>
+        <v>0.9979754321829682</v>
       </c>
       <c r="N22">
-        <v>1.016695133246419</v>
+        <v>0.9988971423577058</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032582068324697</v>
+        <v>0.9596804411632921</v>
       </c>
       <c r="D23">
-        <v>1.038996933543627</v>
+        <v>0.989766758293098</v>
       </c>
       <c r="E23">
-        <v>1.036476379905222</v>
+        <v>0.9707433070551329</v>
       </c>
       <c r="F23">
-        <v>1.045841791565683</v>
+        <v>0.9849306304657064</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035039769287323</v>
+        <v>1.033440081238416</v>
       </c>
       <c r="J23">
-        <v>1.039307729641427</v>
+        <v>0.9915914940622528</v>
       </c>
       <c r="K23">
-        <v>1.042626445616856</v>
+        <v>1.005226117280872</v>
       </c>
       <c r="L23">
-        <v>1.040115406743074</v>
+        <v>0.9865906623380324</v>
       </c>
       <c r="M23">
-        <v>1.049445721267658</v>
+        <v>1.000486755356641</v>
       </c>
       <c r="N23">
-        <v>1.016833927393308</v>
+        <v>0.9997434153846695</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034689894144571</v>
+        <v>0.9720802748560439</v>
       </c>
       <c r="D24">
-        <v>1.040619611906836</v>
+        <v>0.9992030146773689</v>
       </c>
       <c r="E24">
-        <v>1.03850466083739</v>
+        <v>0.9821267201662501</v>
       </c>
       <c r="F24">
-        <v>1.047788380637221</v>
+        <v>0.9959040084127492</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035562159181229</v>
+        <v>1.037568329348916</v>
       </c>
       <c r="J24">
-        <v>1.040888269905704</v>
+        <v>1.000697109830927</v>
       </c>
       <c r="K24">
-        <v>1.043973631218547</v>
+        <v>1.013244140741639</v>
       </c>
       <c r="L24">
-        <v>1.041866005053236</v>
+        <v>0.9964751532226757</v>
       </c>
       <c r="M24">
-        <v>1.051117813598925</v>
+        <v>1.010003438108902</v>
       </c>
       <c r="N24">
-        <v>1.017378417229641</v>
+        <v>1.002946360489249</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037129849802828</v>
+        <v>0.9855766349597727</v>
       </c>
       <c r="D25">
-        <v>1.042496302516233</v>
+        <v>1.009499755146391</v>
       </c>
       <c r="E25">
-        <v>1.040854151811659</v>
+        <v>0.9945562860881973</v>
       </c>
       <c r="F25">
-        <v>1.050042630952069</v>
+        <v>1.007892027418108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036157629118677</v>
+        <v>1.04199787748626</v>
       </c>
       <c r="J25">
-        <v>1.042714660405025</v>
+        <v>1.010599347227113</v>
       </c>
       <c r="K25">
-        <v>1.045527934869275</v>
+        <v>1.021952368092095</v>
       </c>
       <c r="L25">
-        <v>1.043890881589773</v>
+        <v>1.007239700621647</v>
       </c>
       <c r="M25">
-        <v>1.05305106228863</v>
+        <v>1.020369052832752</v>
       </c>
       <c r="N25">
-        <v>1.018006329511577</v>
+        <v>1.006426405099472</v>
       </c>
     </row>
   </sheetData>
